--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3304466.259959416</v>
+        <v>3302214.180248209</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>341.0302325097516</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>124.2781875329281</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>83.32727861849585</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>115.013833414418</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>16.32241046606848</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.6311678681416</v>
+        <v>117.4014735002807</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>136.4159137733187</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065913</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.45803047044394</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.33347093294459</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>254.4061294496338</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>76.17049831699812</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>98.45284414233032</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>95.12712756824166</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.00486941082</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470408</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474942</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>804.7114165106916</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737309</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796256</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796256</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>535.9822032813813</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>124.9962984917738</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>785.9060281735974</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V7" t="n">
-        <v>531.2215399677106</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.012869240227</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1344.747170633477</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E8" t="n">
-        <v>958.9589180352325</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249488</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,22 +4799,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,13 +4826,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.4564109463973</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5202280184904</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201672</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.1048757766371</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5048,7 +5048,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687974</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1720.485192177545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990371</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032925</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,19 +5586,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
         <v>1186.520756890282</v>
@@ -5607,13 +5607,13 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,22 +5762,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>31.77834493961035</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>72.44497470121424</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>127.2568112467068</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>72.11969353038617</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>701323.2088618131</v>
+        <v>701323.2088618129</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
         <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.583971892</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26448,7 +26448,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.837515183</v>
+        <v>-791337.8375151829</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124095</v>
+        <v>537406.9082124091</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124097</v>
+        <v>537406.9082124098</v>
       </c>
       <c r="E6" t="n">
-        <v>283850.3641178506</v>
+        <v>283815.626192415</v>
       </c>
       <c r="F6" t="n">
-        <v>609262.8259252061</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="G6" t="n">
-        <v>609262.8259252065</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="H6" t="n">
-        <v>609262.8259252061</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="I6" t="n">
-        <v>609262.8259252061</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="J6" t="n">
-        <v>391731.6235279292</v>
+        <v>391696.8856024928</v>
       </c>
       <c r="K6" t="n">
-        <v>609262.825925206</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="L6" t="n">
-        <v>609262.8259252061</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="M6" t="n">
-        <v>524207.7979896943</v>
+        <v>524173.0600642588</v>
       </c>
       <c r="N6" t="n">
-        <v>609262.8259252063</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="O6" t="n">
-        <v>609262.8259252063</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="P6" t="n">
-        <v>609262.8259252063</v>
+        <v>609228.0879997705</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6528091109314</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576733</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>137.12380990941</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>394.5993151873849</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>152.5806703374713</v>
+        <v>168.8103647053321</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>270.4601319683927</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468622</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>94.15744254776843</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.8041723908834</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.576535426419379e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>545.3845241768652</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,25 +33029,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>406.830144396991</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902408</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
